--- a/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Заявка на отгрузку на Агрокомплект/2020/Чистовая и черновая Бульбаш 0.7.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Заявка на отгрузку на Агрокомплект/2020/Чистовая и черновая Бульбаш 0.7.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="86" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
